--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>001838</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>国投瑞银国家安全灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.82</t>
+          <t>36.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>004224</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>南方军工改革灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001838</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002567</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成国家安全主题灵活配置混合</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.41</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004224</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合A</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011148</t>
+          <t>002567</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合C</t>
+          <t>大成国家安全主题灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>66.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.61</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.32</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -772,15 +872,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.87</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.26</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.87</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.71</v>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.66</v>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.95</v>
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.87</v>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1520,14 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.71</v>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1536,14 +1623,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.66</v>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1552,13 +1661,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,319 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001838</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银国家安全灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4578</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>2.66</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9361</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.95</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000535</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛航天海工装备灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0631</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011148</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方军工改革灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0386</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002567</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成国家安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+      <c r="D7" t="n">
+        <v>3.67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -778,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -839,22 +649,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.89</t>
+          <t>32.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.5652</t>
+          <t>2.4065</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -867,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160135</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证高铁产业指数（LOF）</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -905,36 +715,226 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160639</t>
+          <t>690001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
+          <t>民生加银品牌蓝筹混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0457</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1009,25 +1009,177 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.42</t>
+          <t>40.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>9.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.7068</t>
+          <t>3.8464</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1212,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1273,177 +1425,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.66</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8464</t>
+          <t>5.7068</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160135</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160639</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华中证高铁产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011686</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011685</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1519,22 +1519,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>66.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4065</t>
+          <t>5.5652</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1547,36 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>160135</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>南方中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0561</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1585,226 +1585,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>690001</t>
+          <t>160639</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>民生加银品牌蓝筹混合</t>
+          <t>鹏华中证高铁产业指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0457</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000714</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安稳健回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>64.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002052</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安稳健回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011685</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011686</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1818,128 +1628,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001838</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银国家安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4578</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.66</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.66</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.67</v>
+          <t>160639</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.66</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.95</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>4.87</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>5.71</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5.66</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.67</v>
       </c>
     </row>
@@ -583,6 +600,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1358,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1622,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
+++ b/数据整理/stocks/A股/上证主板/600967-内蒙一机.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.95</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4.87</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5.71</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>5.66</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.67</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>016935</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强C</t>
+          <t>景顺长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3145</t>
+          <t>0.3574</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1630</t>
+          <t>0.1920</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>89.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0543</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161038</t>
+          <t>014305</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）A</t>
+          <t>华泰柏瑞中证500指数增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0168</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -808,34 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014171</t>
+          <t>014306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国新兴成长量化精选混合（LOF）C</t>
+          <t>华泰柏瑞中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -844,12 +863,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>016935</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强A</t>
+          <t>景顺长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -859,19 +878,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -880,6 +899,286 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1239,7 +1538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1485,7 +1784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1655,7 +1954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1749,7 +2048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1919,7 +2218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
